--- a/Data/Input/expected.xlsx
+++ b/Data/Input/expected.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Emerald\UiPath\Projects\CI-CD Automation\UiBank RPA Process\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9942d6ee2870be0e/Documents/RPATestingAzure/Data/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFFFFCE-9C1D-4D9A-8CBC-4E82FEE33CF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{7CFFFFCE-9C1D-4D9A-8CBC-4E82FEE33CF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{671CBF20-EF69-4437-9FB6-41B2107BA454}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="2550" windowWidth="16380" windowHeight="16185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Email</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>01/17/2020 12:45:41</t>
+  </si>
+  <si>
+    <t>Andrews Current Account</t>
+  </si>
+  <si>
+    <t>MyCar</t>
   </si>
 </sst>
 </file>
@@ -126,11 +132,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,13 +445,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -621,7 +637,58 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>13151719</v>
+      </c>
+      <c r="B9" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="4">
+        <v>-255.76</v>
+      </c>
+      <c r="F9" s="5">
+        <v>43906</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>75634531</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4">
+        <v>-35</v>
+      </c>
+      <c r="F10" s="5">
+        <v>43910</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
